--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sasha/Educative materials/Udemy - Selenium WebDriver with Java/Section 10 - AUTOMATION FRAMEWORK/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD6E51-0783-C343-A3E4-061D0D97365D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -51,28 +52,32 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>vaibhav</t>
-  </si>
-  <si>
-    <t>singhal</t>
-  </si>
-  <si>
-    <t>rakesh</t>
-  </si>
-  <si>
-    <t>gupta</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>singh</t>
+    <t>Lex</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Delonge</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Hoppus</t>
+  </si>
+  <si>
+    <t>Hello world</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,20 +397,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.5" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,15 +418,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -436,20 +441,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -457,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -465,7 +470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -473,7 +478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
